--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/Teszt_1_SzP.xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/Teszt_1_SzP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Kilépési feltétel:</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Szilágyi Péter</t>
+  </si>
+  <si>
+    <t>WEB lap magnyitása</t>
+  </si>
+  <si>
+    <t>A lap fejléce változó helyeken jelenik meg</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,9 +674,13 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
